--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H2">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I2">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J2">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.21649044518639</v>
+        <v>0.1448673333333333</v>
       </c>
       <c r="N2">
-        <v>2.21649044518639</v>
+        <v>0.434602</v>
       </c>
       <c r="O2">
-        <v>0.5318508067113012</v>
+        <v>0.03218399861311746</v>
       </c>
       <c r="P2">
-        <v>0.5318508067113012</v>
+        <v>0.03218399861311746</v>
       </c>
       <c r="Q2">
-        <v>821.259966770394</v>
+        <v>53.90637199693821</v>
       </c>
       <c r="R2">
-        <v>821.259966770394</v>
+        <v>485.1573479724439</v>
       </c>
       <c r="S2">
-        <v>0.4353467164484645</v>
+        <v>0.02605374228208943</v>
       </c>
       <c r="T2">
-        <v>0.4353467164484645</v>
+        <v>0.02605374228208943</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>370.522674056162</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H3">
-        <v>370.522674056162</v>
+        <v>1116.325622</v>
       </c>
       <c r="I3">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J3">
-        <v>0.8185504486501211</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.95101370676189</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N3">
-        <v>1.95101370676189</v>
+        <v>6.759566</v>
       </c>
       <c r="O3">
-        <v>0.4681491932886988</v>
+        <v>0.5005726222366118</v>
       </c>
       <c r="P3">
-        <v>0.4681491932886988</v>
+        <v>0.5005726222366118</v>
       </c>
       <c r="Q3">
-        <v>722.8948157496402</v>
+        <v>838.4307466000056</v>
       </c>
       <c r="R3">
-        <v>722.8948157496402</v>
+        <v>7545.87671940005</v>
       </c>
       <c r="S3">
-        <v>0.3832037322016567</v>
+        <v>0.4052259089989786</v>
       </c>
       <c r="T3">
-        <v>0.3832037322016567</v>
+        <v>0.4052259089989786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.1838909844147</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H4">
-        <v>65.1838909844147</v>
+        <v>1116.325622</v>
       </c>
       <c r="I4">
-        <v>0.1440028018419346</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J4">
-        <v>0.1440028018419346</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.21649044518639</v>
+        <v>0.002935666666666667</v>
       </c>
       <c r="N4">
-        <v>2.21649044518639</v>
+        <v>0.008807000000000001</v>
       </c>
       <c r="O4">
-        <v>0.5318508067113012</v>
+        <v>0.0006521932153688329</v>
       </c>
       <c r="P4">
-        <v>0.5318508067113012</v>
+        <v>0.0006521932153688329</v>
       </c>
       <c r="Q4">
-        <v>144.4794715470264</v>
+        <v>1.092386639217111</v>
       </c>
       <c r="R4">
-        <v>144.4794715470264</v>
+        <v>9.831479752953999</v>
       </c>
       <c r="S4">
-        <v>0.07658800632832059</v>
+        <v>0.0005279665263352714</v>
       </c>
       <c r="T4">
-        <v>0.07658800632832059</v>
+        <v>0.0005279665263352714</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.1838909844147</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H5">
-        <v>65.1838909844147</v>
+        <v>1116.325622</v>
       </c>
       <c r="I5">
-        <v>0.1440028018419346</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J5">
-        <v>0.1440028018419346</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.95101370676189</v>
+        <v>0.003305333333333333</v>
       </c>
       <c r="N5">
-        <v>1.95101370676189</v>
+        <v>0.009915999999999999</v>
       </c>
       <c r="O5">
-        <v>0.4681491932886988</v>
+        <v>0.0007343190557053873</v>
       </c>
       <c r="P5">
-        <v>0.4681491932886988</v>
+        <v>0.0007343190557053873</v>
       </c>
       <c r="Q5">
-        <v>127.1746647706659</v>
+        <v>1.229942763083555</v>
       </c>
       <c r="R5">
-        <v>127.1746647706659</v>
+        <v>11.069484867752</v>
       </c>
       <c r="S5">
-        <v>0.06741479551361405</v>
+        <v>0.0005944494237697911</v>
       </c>
       <c r="T5">
-        <v>0.06741479551361405</v>
+        <v>0.0005944494237697911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.307342147356449</v>
+        <v>372.1085406666666</v>
       </c>
       <c r="H6">
-        <v>0.307342147356449</v>
+        <v>1116.325622</v>
       </c>
       <c r="I6">
-        <v>0.0006789734346178783</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="J6">
-        <v>0.0006789734346178783</v>
+        <v>0.8095247142929753</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.21649044518639</v>
+        <v>2.096925333333333</v>
       </c>
       <c r="N6">
-        <v>2.21649044518639</v>
+        <v>6.290775999999999</v>
       </c>
       <c r="O6">
-        <v>0.5318508067113012</v>
+        <v>0.4658568668791966</v>
       </c>
       <c r="P6">
-        <v>0.5318508067113012</v>
+        <v>0.4658568668791966</v>
       </c>
       <c r="Q6">
-        <v>0.6812209330186366</v>
+        <v>780.28382567363</v>
       </c>
       <c r="R6">
-        <v>0.6812209330186366</v>
+        <v>7022.55443106267</v>
       </c>
       <c r="S6">
-        <v>0.0003611125689370615</v>
+        <v>0.3771226470618023</v>
       </c>
       <c r="T6">
-        <v>0.0003611125689370615</v>
+        <v>0.3771226470618023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.307342147356449</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H7">
-        <v>0.307342147356449</v>
+        <v>209.114842</v>
       </c>
       <c r="I7">
-        <v>0.0006789734346178783</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J7">
-        <v>0.0006789734346178783</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.95101370676189</v>
+        <v>0.1448673333333333</v>
       </c>
       <c r="N7">
-        <v>1.95101370676189</v>
+        <v>0.434602</v>
       </c>
       <c r="O7">
-        <v>0.4681491932886988</v>
+        <v>0.03218399861311746</v>
       </c>
       <c r="P7">
-        <v>0.4681491932886988</v>
+        <v>0.03218399861311746</v>
       </c>
       <c r="Q7">
-        <v>0.5996287421580646</v>
+        <v>10.09796984032044</v>
       </c>
       <c r="R7">
-        <v>0.5996287421580646</v>
+        <v>90.88172856288401</v>
       </c>
       <c r="S7">
-        <v>0.0003178608656808168</v>
+        <v>0.004880497314992068</v>
       </c>
       <c r="T7">
-        <v>0.0003178608656808168</v>
+        <v>0.004880497314992069</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.419125199882072</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H8">
-        <v>0.419125199882072</v>
+        <v>209.114842</v>
       </c>
       <c r="I8">
-        <v>0.0009259220674631104</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J8">
-        <v>0.0009259220674631104</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.21649044518639</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N8">
-        <v>2.21649044518639</v>
+        <v>6.759566</v>
       </c>
       <c r="O8">
-        <v>0.5318508067113012</v>
+        <v>0.5005726222366118</v>
       </c>
       <c r="P8">
-        <v>0.5318508067113012</v>
+        <v>0.5005726222366118</v>
       </c>
       <c r="Q8">
-        <v>0.9289870008754483</v>
+        <v>157.0583973420636</v>
       </c>
       <c r="R8">
-        <v>0.9289870008754483</v>
+        <v>1413.525576078572</v>
       </c>
       <c r="S8">
-        <v>0.0004924523985320512</v>
+        <v>0.07590863298721975</v>
       </c>
       <c r="T8">
-        <v>0.0004924523985320512</v>
+        <v>0.07590863298721975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.419125199882072</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H9">
-        <v>0.419125199882072</v>
+        <v>209.114842</v>
       </c>
       <c r="I9">
-        <v>0.0009259220674631104</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J9">
-        <v>0.0009259220674631104</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.95101370676189</v>
+        <v>0.002935666666666667</v>
       </c>
       <c r="N9">
-        <v>1.95101370676189</v>
+        <v>0.008807000000000001</v>
       </c>
       <c r="O9">
-        <v>0.4681491932886988</v>
+        <v>0.0006521932153688329</v>
       </c>
       <c r="P9">
-        <v>0.4681491932886988</v>
+        <v>0.0006521932153688329</v>
       </c>
       <c r="Q9">
-        <v>0.8177190098192393</v>
+        <v>0.2046304903882222</v>
       </c>
       <c r="R9">
-        <v>0.8177190098192393</v>
+        <v>1.841674413494</v>
       </c>
       <c r="S9">
-        <v>0.0004334696689310593</v>
+        <v>9.89009251065001E-05</v>
       </c>
       <c r="T9">
-        <v>0.0004334696689310593</v>
+        <v>9.89009251065001E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.2240697702672</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H10">
-        <v>16.2240697702672</v>
+        <v>209.114842</v>
       </c>
       <c r="I10">
-        <v>0.03584185400586344</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J10">
-        <v>0.03584185400586344</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.21649044518639</v>
+        <v>0.003305333333333333</v>
       </c>
       <c r="N10">
-        <v>2.21649044518639</v>
+        <v>0.009915999999999999</v>
       </c>
       <c r="O10">
-        <v>0.5318508067113012</v>
+        <v>0.0007343190557053873</v>
       </c>
       <c r="P10">
-        <v>0.5318508067113012</v>
+        <v>0.0007343190557053873</v>
       </c>
       <c r="Q10">
-        <v>35.9604956278346</v>
+        <v>0.2303980859191111</v>
       </c>
       <c r="R10">
-        <v>35.9604956278346</v>
+        <v>2.073582773272</v>
       </c>
       <c r="S10">
-        <v>0.01906251896704715</v>
+        <v>0.0001113547829403946</v>
       </c>
       <c r="T10">
-        <v>0.01906251896704715</v>
+        <v>0.0001113547829403946</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.2240697702672</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H11">
-        <v>16.2240697702672</v>
+        <v>209.114842</v>
       </c>
       <c r="I11">
-        <v>0.03584185400586344</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="J11">
-        <v>0.03584185400586344</v>
+        <v>0.1516435969830949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.95101370676189</v>
+        <v>2.096925333333333</v>
       </c>
       <c r="N11">
-        <v>1.95101370676189</v>
+        <v>6.290775999999999</v>
       </c>
       <c r="O11">
-        <v>0.4681491932886988</v>
+        <v>0.4658568668791966</v>
       </c>
       <c r="P11">
-        <v>0.4681491932886988</v>
+        <v>0.4658568668791966</v>
       </c>
       <c r="Q11">
-        <v>31.65338250125253</v>
+        <v>146.1660699219324</v>
       </c>
       <c r="R11">
-        <v>31.65338250125253</v>
+        <v>1315.494629297392</v>
       </c>
       <c r="S11">
-        <v>0.01677933503881629</v>
+        <v>0.07064421097283617</v>
       </c>
       <c r="T11">
-        <v>0.01677933503881629</v>
+        <v>0.07064421097283617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.387356</v>
+      </c>
+      <c r="H12">
+        <v>1.162068</v>
+      </c>
+      <c r="I12">
+        <v>0.0008426956679571845</v>
+      </c>
+      <c r="J12">
+        <v>0.0008426956679571845</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1448673333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.434602</v>
+      </c>
+      <c r="O12">
+        <v>0.03218399861311746</v>
+      </c>
+      <c r="P12">
+        <v>0.03218399861311746</v>
+      </c>
+      <c r="Q12">
+        <v>0.05611523077066666</v>
+      </c>
+      <c r="R12">
+        <v>0.5050370769360001</v>
+      </c>
+      <c r="S12">
+        <v>2.712131620881412E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.712131620881412E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.387356</v>
+      </c>
+      <c r="H13">
+        <v>1.162068</v>
+      </c>
+      <c r="I13">
+        <v>0.0008426956679571845</v>
+      </c>
+      <c r="J13">
+        <v>0.0008426956679571845</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.253188666666667</v>
+      </c>
+      <c r="N13">
+        <v>6.759566</v>
+      </c>
+      <c r="O13">
+        <v>0.5005726222366118</v>
+      </c>
+      <c r="P13">
+        <v>0.5005726222366118</v>
+      </c>
+      <c r="Q13">
+        <v>0.8727861491653334</v>
+      </c>
+      <c r="R13">
+        <v>7.855075342488</v>
+      </c>
+      <c r="S13">
+        <v>0.000421830380256761</v>
+      </c>
+      <c r="T13">
+        <v>0.000421830380256761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.387356</v>
+      </c>
+      <c r="H14">
+        <v>1.162068</v>
+      </c>
+      <c r="I14">
+        <v>0.0008426956679571845</v>
+      </c>
+      <c r="J14">
+        <v>0.0008426956679571845</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.0006521932153688329</v>
+      </c>
+      <c r="P14">
+        <v>0.0006521932153688329</v>
+      </c>
+      <c r="Q14">
+        <v>0.001137148097333333</v>
+      </c>
+      <c r="R14">
+        <v>0.010234332876</v>
+      </c>
+      <c r="S14">
+        <v>5.496003972623826E-07</v>
+      </c>
+      <c r="T14">
+        <v>5.496003972623826E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.387356</v>
+      </c>
+      <c r="H15">
+        <v>1.162068</v>
+      </c>
+      <c r="I15">
+        <v>0.0008426956679571845</v>
+      </c>
+      <c r="J15">
+        <v>0.0008426956679571845</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.003305333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.009915999999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.0007343190557053873</v>
+      </c>
+      <c r="P15">
+        <v>0.0007343190557053873</v>
+      </c>
+      <c r="Q15">
+        <v>0.001280340698666667</v>
+      </c>
+      <c r="R15">
+        <v>0.011523066288</v>
+      </c>
+      <c r="S15">
+        <v>6.188074871413404E-07</v>
+      </c>
+      <c r="T15">
+        <v>6.188074871413404E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.387356</v>
+      </c>
+      <c r="H16">
+        <v>1.162068</v>
+      </c>
+      <c r="I16">
+        <v>0.0008426956679571845</v>
+      </c>
+      <c r="J16">
+        <v>0.0008426956679571845</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.096925333333333</v>
+      </c>
+      <c r="N16">
+        <v>6.290775999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.4658568668791966</v>
+      </c>
+      <c r="P16">
+        <v>0.4658568668791966</v>
+      </c>
+      <c r="Q16">
+        <v>0.8122566094186666</v>
+      </c>
+      <c r="R16">
+        <v>7.310309484768</v>
+      </c>
+      <c r="S16">
+        <v>0.0003925755636072058</v>
+      </c>
+      <c r="T16">
+        <v>0.0003925755636072058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.425022</v>
+      </c>
+      <c r="H17">
+        <v>1.275066</v>
+      </c>
+      <c r="I17">
+        <v>0.0009246383125251667</v>
+      </c>
+      <c r="J17">
+        <v>0.0009246383125251667</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1448673333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.434602</v>
+      </c>
+      <c r="O17">
+        <v>0.03218399861311746</v>
+      </c>
+      <c r="P17">
+        <v>0.03218399861311746</v>
+      </c>
+      <c r="Q17">
+        <v>0.061571803748</v>
+      </c>
+      <c r="R17">
+        <v>0.554146233732</v>
+      </c>
+      <c r="S17">
+        <v>2.975855816794523E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.975855816794524E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.425022</v>
+      </c>
+      <c r="H18">
+        <v>1.275066</v>
+      </c>
+      <c r="I18">
+        <v>0.0009246383125251667</v>
+      </c>
+      <c r="J18">
+        <v>0.0009246383125251667</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.253188666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.759566</v>
+      </c>
+      <c r="O18">
+        <v>0.5005726222366118</v>
+      </c>
+      <c r="P18">
+        <v>0.5005726222366118</v>
+      </c>
+      <c r="Q18">
+        <v>0.957654753484</v>
+      </c>
+      <c r="R18">
+        <v>8.618892781355999</v>
+      </c>
+      <c r="S18">
+        <v>0.0004628486247211585</v>
+      </c>
+      <c r="T18">
+        <v>0.0004628486247211585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.425022</v>
+      </c>
+      <c r="H19">
+        <v>1.275066</v>
+      </c>
+      <c r="I19">
+        <v>0.0009246383125251667</v>
+      </c>
+      <c r="J19">
+        <v>0.0009246383125251667</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.0006521932153688329</v>
+      </c>
+      <c r="P19">
+        <v>0.0006521932153688329</v>
+      </c>
+      <c r="Q19">
+        <v>0.001247722918</v>
+      </c>
+      <c r="R19">
+        <v>0.011229506262</v>
+      </c>
+      <c r="S19">
+        <v>6.030428340990003E-07</v>
+      </c>
+      <c r="T19">
+        <v>6.030428340990003E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.425022</v>
+      </c>
+      <c r="H20">
+        <v>1.275066</v>
+      </c>
+      <c r="I20">
+        <v>0.0009246383125251667</v>
+      </c>
+      <c r="J20">
+        <v>0.0009246383125251667</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.003305333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.009915999999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.0007343190557053873</v>
+      </c>
+      <c r="P20">
+        <v>0.0007343190557053873</v>
+      </c>
+      <c r="Q20">
+        <v>0.001404839384</v>
+      </c>
+      <c r="R20">
+        <v>0.012643554456</v>
+      </c>
+      <c r="S20">
+        <v>6.789795325225032E-07</v>
+      </c>
+      <c r="T20">
+        <v>6.789795325225032E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.425022</v>
+      </c>
+      <c r="H21">
+        <v>1.275066</v>
+      </c>
+      <c r="I21">
+        <v>0.0009246383125251667</v>
+      </c>
+      <c r="J21">
+        <v>0.0009246383125251667</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.096925333333333</v>
+      </c>
+      <c r="N21">
+        <v>6.290775999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.4658568668791966</v>
+      </c>
+      <c r="P21">
+        <v>0.4658568668791966</v>
+      </c>
+      <c r="Q21">
+        <v>0.891239399024</v>
+      </c>
+      <c r="R21">
+        <v>8.021154591216</v>
+      </c>
+      <c r="S21">
+        <v>0.0004307491072694416</v>
+      </c>
+      <c r="T21">
+        <v>0.0004307491072694416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>17.03711166666666</v>
+      </c>
+      <c r="H22">
+        <v>51.111335</v>
+      </c>
+      <c r="I22">
+        <v>0.03706435474344739</v>
+      </c>
+      <c r="J22">
+        <v>0.03706435474344739</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1448673333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.434602</v>
+      </c>
+      <c r="O22">
+        <v>0.03218399861311746</v>
+      </c>
+      <c r="P22">
+        <v>0.03218399861311746</v>
+      </c>
+      <c r="Q22">
+        <v>2.468120934852222</v>
+      </c>
+      <c r="R22">
+        <v>22.21308841367</v>
+      </c>
+      <c r="S22">
+        <v>0.001192879141659204</v>
+      </c>
+      <c r="T22">
+        <v>0.001192879141659205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>17.03711166666666</v>
+      </c>
+      <c r="H23">
+        <v>51.111335</v>
+      </c>
+      <c r="I23">
+        <v>0.03706435474344739</v>
+      </c>
+      <c r="J23">
+        <v>0.03706435474344739</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.253188666666667</v>
+      </c>
+      <c r="N23">
+        <v>6.759566</v>
+      </c>
+      <c r="O23">
+        <v>0.5005726222366118</v>
+      </c>
+      <c r="P23">
+        <v>0.5005726222366118</v>
+      </c>
+      <c r="Q23">
+        <v>38.38782692006777</v>
+      </c>
+      <c r="R23">
+        <v>345.49044228061</v>
+      </c>
+      <c r="S23">
+        <v>0.01855340124543546</v>
+      </c>
+      <c r="T23">
+        <v>0.01855340124543546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>17.03711166666666</v>
+      </c>
+      <c r="H24">
+        <v>51.111335</v>
+      </c>
+      <c r="I24">
+        <v>0.03706435474344739</v>
+      </c>
+      <c r="J24">
+        <v>0.03706435474344739</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.0006521932153688329</v>
+      </c>
+      <c r="P24">
+        <v>0.0006521932153688329</v>
+      </c>
+      <c r="Q24">
+        <v>0.0500152808161111</v>
+      </c>
+      <c r="R24">
+        <v>0.450137527345</v>
+      </c>
+      <c r="S24">
+        <v>2.417312069570001E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.417312069570001E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>17.03711166666666</v>
+      </c>
+      <c r="H25">
+        <v>51.111335</v>
+      </c>
+      <c r="I25">
+        <v>0.03706435474344739</v>
+      </c>
+      <c r="J25">
+        <v>0.03706435474344739</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.003305333333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.009915999999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.0007343190557053873</v>
+      </c>
+      <c r="P25">
+        <v>0.0007343190557053873</v>
+      </c>
+      <c r="Q25">
+        <v>0.05631333309555555</v>
+      </c>
+      <c r="R25">
+        <v>0.50681999786</v>
+      </c>
+      <c r="S25">
+        <v>2.721706197553778E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.721706197553778E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>17.03711166666666</v>
+      </c>
+      <c r="H26">
+        <v>51.111335</v>
+      </c>
+      <c r="I26">
+        <v>0.03706435474344739</v>
+      </c>
+      <c r="J26">
+        <v>0.03706435474344739</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.096925333333333</v>
+      </c>
+      <c r="N26">
+        <v>6.290775999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.4658568668791966</v>
+      </c>
+      <c r="P26">
+        <v>0.4658568668791966</v>
+      </c>
+      <c r="Q26">
+        <v>35.72555106066221</v>
+      </c>
+      <c r="R26">
+        <v>321.52995954596</v>
+      </c>
+      <c r="S26">
+        <v>0.01726668417368149</v>
+      </c>
+      <c r="T26">
+        <v>0.01726668417368149</v>
       </c>
     </row>
   </sheetData>
